--- a/output/ValueSet-SPLASCHLfetRightBothTypeObservationVS.xlsx
+++ b/output/ValueSet-SPLASCHLfetRightBothTypeObservationVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T12:50:12-04:00</t>
+    <t>2022-03-29T14:17:18-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SPLASCHLfetRightBothTypeObservationVS.xlsx
+++ b/output/ValueSet-SPLASCHLfetRightBothTypeObservationVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T14:17:18-04:00</t>
+    <t>2022-04-05T11:13:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SPLASCHLfetRightBothTypeObservationVS.xlsx
+++ b/output/ValueSet-SPLASCHLfetRightBothTypeObservationVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T11:13:11-04:00</t>
+    <t>2022-04-05T12:11:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SPLASCHLfetRightBothTypeObservationVS.xlsx
+++ b/output/ValueSet-SPLASCHLfetRightBothTypeObservationVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T12:11:10-04:00</t>
+    <t>2022-04-15T08:42:50-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SPLASCHLfetRightBothTypeObservationVS.xlsx
+++ b/output/ValueSet-SPLASCHLfetRightBothTypeObservationVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T08:42:50-04:00</t>
+    <t>2022-04-15T09:25:37-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SPLASCHLfetRightBothTypeObservationVS.xlsx
+++ b/output/ValueSet-SPLASCHLfetRightBothTypeObservationVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T09:25:37-04:00</t>
+    <t>2022-04-15T12:12:07-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SPLASCHLfetRightBothTypeObservationVS.xlsx
+++ b/output/ValueSet-SPLASCHLfetRightBothTypeObservationVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T12:12:07-04:00</t>
+    <t>2022-04-18T11:35:28-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SPLASCHLfetRightBothTypeObservationVS.xlsx
+++ b/output/ValueSet-SPLASCHLfetRightBothTypeObservationVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T11:35:28-04:00</t>
+    <t>2022-04-18T14:57:29-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SPLASCHLfetRightBothTypeObservationVS.xlsx
+++ b/output/ValueSet-SPLASCHLfetRightBothTypeObservationVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:57:29-04:00</t>
+    <t>2022-04-27T11:54:23-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SPLASCHLfetRightBothTypeObservationVS.xlsx
+++ b/output/ValueSet-SPLASCHLfetRightBothTypeObservationVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T11:54:23-04:00</t>
+    <t>2022-04-29T14:30:00-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SPLASCHLfetRightBothTypeObservationVS.xlsx
+++ b/output/ValueSet-SPLASCHLfetRightBothTypeObservationVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-29T14:30:00-04:00</t>
+    <t>2022-05-03T12:45:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SPLASCHLfetRightBothTypeObservationVS.xlsx
+++ b/output/ValueSet-SPLASCHLfetRightBothTypeObservationVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T12:45:05-04:00</t>
+    <t>2022-05-03T15:05:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SPLASCHLfetRightBothTypeObservationVS.xlsx
+++ b/output/ValueSet-SPLASCHLfetRightBothTypeObservationVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T15:05:17-04:00</t>
+    <t>2022-05-04T09:54:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-SPLASCHLfetRightBothTypeObservationVS.xlsx
+++ b/output/ValueSet-SPLASCHLfetRightBothTypeObservationVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T09:54:10-04:00</t>
+    <t>2022-05-04T12:01:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
